--- a/BlockList.xlsx
+++ b/BlockList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinshkreli/code/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E161FEA-1B3E-8F46-8527-63F230283A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACAADE79-A861-E143-B357-3FD0E7295EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-41840" yWindow="-2820" windowWidth="19220" windowHeight="16940" xr2:uid="{15FF22D3-CB70-DD44-B1EB-D79AB225F7E1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="323">
   <si>
     <t>Handle</t>
   </si>
@@ -981,6 +981,30 @@
   </si>
   <si>
     <t>kasie</t>
+  </si>
+  <si>
+    <t>Whistleblower Summit</t>
+  </si>
+  <si>
+    <t>WSFX_Summit</t>
+  </si>
+  <si>
+    <t>Snitches</t>
+  </si>
+  <si>
+    <t>Gerstein</t>
+  </si>
+  <si>
+    <t>joshgerstein</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Trump</t>
+  </si>
+  <si>
+    <t>maryLtrump</t>
   </si>
 </sst>
 </file>
@@ -1332,17 +1356,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40EB110-7F2E-BC4A-9553-2E9A002AA9EA}">
-  <dimension ref="B2:E108"/>
+  <dimension ref="B2:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C86" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
@@ -2846,6 +2871,48 @@
         <v>16</v>
       </c>
     </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>315</v>
+      </c>
+      <c r="C109" t="s">
+        <v>315</v>
+      </c>
+      <c r="D109" t="s">
+        <v>316</v>
+      </c>
+      <c r="E109" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>118</v>
+      </c>
+      <c r="C110" t="s">
+        <v>318</v>
+      </c>
+      <c r="D110" t="s">
+        <v>319</v>
+      </c>
+      <c r="E110" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" t="s">
+        <v>321</v>
+      </c>
+      <c r="D111" t="s">
+        <v>322</v>
+      </c>
+      <c r="E111" t="s">
+        <v>283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
